--- a/CoUML-app/ClientApp/src/assets/consts.xlsx
+++ b/CoUML-app/ClientApp/src/assets/consts.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smurph/Documents/CoUML/CoUML/CoUML-app/ClientApp/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3437D1E-7E0A-2742-8F3A-4730482223BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B2843C-32BF-6345-880D-FBAE31FF72AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15280" yWindow="4120" windowWidth="21600" windowHeight="18920" activeTab="1" xr2:uid="{2D55D91E-6242-7C43-A416-06FB51B3D50D}"/>
+    <workbookView xWindow="-21520" yWindow="6820" windowWidth="21600" windowHeight="18920" xr2:uid="{2D55D91E-6242-7C43-A416-06FB51B3D50D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1149,15 +1149,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338AB3BC-E281-BB41-9996-004E373358F6}">
-  <dimension ref="D10:H57"/>
+  <dimension ref="D10:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="10" spans="4:8">
+    <row r="10" spans="4:9">
       <c r="D10" t="s">
         <v>28</v>
       </c>
@@ -1166,13 +1169,27 @@
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="G10" t="str">
+        <f>UPPER(E10&amp;D10)</f>
+        <v>CRIMSONRED</v>
       </c>
       <c r="H10" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, "const", UPPER(E10&amp;D10), "=", _xlfn.TEXTJOIN(,FALSE,"'",F10,"'", ";") )</f>
         <v>const CRIMSONRED = '#BE0039';</v>
       </c>
-    </row>
-    <row r="11" spans="4:8">
+      <c r="I10" t="str">
+        <f>":host ::ng-deep .p-chip."&amp;G10&amp;" {
+	background: "&amp;F10&amp;";
+	color: white;
+}"</f>
+        <v>:host ::ng-deep .p-chip.CRIMSONRED {
+	background: #BE0039;
+	color: white;
+}</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9">
       <c r="D11" t="s">
         <v>28</v>
       </c>
@@ -1182,12 +1199,26 @@
       <c r="F11" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="G11" t="str">
+        <f t="shared" ref="G11:G54" si="0">UPPER(E11&amp;D11)</f>
+        <v>FIRERED</v>
+      </c>
       <c r="H11" t="str">
-        <f t="shared" ref="H11:H54" si="0">_xlfn.TEXTJOIN(" ", TRUE, "const", UPPER(E11&amp;D11), "=", _xlfn.TEXTJOIN(,FALSE,"'",F11,"'", ";") )</f>
+        <f t="shared" ref="H11:H54" si="1">_xlfn.TEXTJOIN(" ", TRUE, "const", UPPER(E11&amp;D11), "=", _xlfn.TEXTJOIN(,FALSE,"'",F11,"'", ";") )</f>
         <v>const FIRERED = '#FF4500';</v>
       </c>
-    </row>
-    <row r="12" spans="4:8">
+      <c r="I11" t="str">
+        <f t="shared" ref="I11:I27" si="2">":host ::ng-deep .p-chip."&amp;G11&amp;" {
+	background: "&amp;F11&amp;";
+	color: white;
+}"</f>
+        <v>:host ::ng-deep .p-chip.FIRERED {
+	background: #FF4500;
+	color: white;
+}</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9">
       <c r="D12" t="s">
         <v>29</v>
       </c>
@@ -1197,12 +1228,23 @@
       <c r="F12" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>CANNARYYELLOW</v>
+      </c>
       <c r="H12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const CANNARYYELLOW = '#FFA800';</v>
       </c>
-    </row>
-    <row r="13" spans="4:8">
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v>:host ::ng-deep .p-chip.CANNARYYELLOW {
+	background: #FFA800;
+	color: white;
+}</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9">
       <c r="D13" t="s">
         <v>29</v>
       </c>
@@ -1212,12 +1254,23 @@
       <c r="F13" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>BUTTERYELLOW</v>
+      </c>
       <c r="H13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const BUTTERYELLOW = '#FFD635';</v>
       </c>
-    </row>
-    <row r="14" spans="4:8">
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v>:host ::ng-deep .p-chip.BUTTERYELLOW {
+	background: #FFD635;
+	color: white;
+}</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9">
       <c r="D14" t="s">
         <v>30</v>
       </c>
@@ -1227,12 +1280,23 @@
       <c r="F14" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>BASILGREEN</v>
+      </c>
       <c r="H14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const BASILGREEN = '#00A368';</v>
       </c>
-    </row>
-    <row r="15" spans="4:8">
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v>:host ::ng-deep .p-chip.BASILGREEN {
+	background: #00A368;
+	color: white;
+}</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9">
       <c r="D15" t="s">
         <v>30</v>
       </c>
@@ -1242,12 +1306,23 @@
       <c r="F15" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>FERNGREEN</v>
+      </c>
       <c r="H15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const FERNGREEN = '#00CC78';</v>
       </c>
-    </row>
-    <row r="16" spans="4:8">
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v>:host ::ng-deep .p-chip.FERNGREEN {
+	background: #00CC78;
+	color: white;
+}</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9">
       <c r="D16" t="s">
         <v>30</v>
       </c>
@@ -1257,12 +1332,23 @@
       <c r="F16" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>LIMEGREEN</v>
+      </c>
       <c r="H16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const LIMEGREEN = '#7EED56';</v>
       </c>
-    </row>
-    <row r="17" spans="4:8">
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v>:host ::ng-deep .p-chip.LIMEGREEN {
+	background: #7EED56;
+	color: white;
+}</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9">
       <c r="D17" t="s">
         <v>35</v>
       </c>
@@ -1272,12 +1358,23 @@
       <c r="F17" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>OCEANBLUE</v>
+      </c>
       <c r="H17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const OCEANBLUE = '#00756F';</v>
       </c>
-    </row>
-    <row r="18" spans="4:8">
+      <c r="I17" t="str">
+        <f t="shared" si="2"/>
+        <v>:host ::ng-deep .p-chip.OCEANBLUE {
+	background: #00756F;
+	color: white;
+}</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9">
       <c r="D18" t="s">
         <v>35</v>
       </c>
@@ -1287,24 +1384,46 @@
       <c r="F18" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>TEALBLUE</v>
+      </c>
       <c r="H18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const TEALBLUE = '#009EAA';</v>
       </c>
-    </row>
-    <row r="19" spans="4:8">
+      <c r="I18" t="str">
+        <f t="shared" si="2"/>
+        <v>:host ::ng-deep .p-chip.TEALBLUE {
+	background: #009EAA;
+	color: white;
+}</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9">
       <c r="D19" t="s">
         <v>35</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>BLUE</v>
+      </c>
       <c r="H19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const BLUE = '#2450A4';</v>
       </c>
-    </row>
-    <row r="20" spans="4:8">
+      <c r="I19" t="str">
+        <f t="shared" si="2"/>
+        <v>:host ::ng-deep .p-chip.BLUE {
+	background: #2450A4;
+	color: white;
+}</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9">
       <c r="D20" t="s">
         <v>35</v>
       </c>
@@ -1314,12 +1433,23 @@
       <c r="F20" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>CERULEANBLUE</v>
+      </c>
       <c r="H20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const CERULEANBLUE = '#3690EA';</v>
       </c>
-    </row>
-    <row r="21" spans="4:8">
+      <c r="I20" t="str">
+        <f t="shared" si="2"/>
+        <v>:host ::ng-deep .p-chip.CERULEANBLUE {
+	background: #3690EA;
+	color: white;
+}</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9">
       <c r="D21" t="s">
         <v>35</v>
       </c>
@@ -1329,12 +1459,23 @@
       <c r="F21" s="12" t="s">
         <v>11</v>
       </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>ARCTICBLUE</v>
+      </c>
       <c r="H21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const ARCTICBLUE = '#51E9F4';</v>
       </c>
-    </row>
-    <row r="22" spans="4:8">
+      <c r="I21" t="str">
+        <f t="shared" si="2"/>
+        <v>:host ::ng-deep .p-chip.ARCTICBLUE {
+	background: #51E9F4;
+	color: white;
+}</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9">
       <c r="D22" t="s">
         <v>35</v>
       </c>
@@ -1344,12 +1485,23 @@
       <c r="F22" s="13" t="s">
         <v>12</v>
       </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>INDIGOBLUE</v>
+      </c>
       <c r="H22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const INDIGOBLUE = '#493AC1';</v>
       </c>
-    </row>
-    <row r="23" spans="4:8">
+      <c r="I22" t="str">
+        <f t="shared" si="2"/>
+        <v>:host ::ng-deep .p-chip.INDIGOBLUE {
+	background: #493AC1;
+	color: white;
+}</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9">
       <c r="D23" t="s">
         <v>41</v>
       </c>
@@ -1359,12 +1511,23 @@
       <c r="F23" s="14" t="s">
         <v>13</v>
       </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>BLUEBERRYPURPLE</v>
+      </c>
       <c r="H23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const BLUEBERRYPURPLE = '#6A5CFF';</v>
       </c>
-    </row>
-    <row r="24" spans="4:8">
+      <c r="I23" t="str">
+        <f t="shared" si="2"/>
+        <v>:host ::ng-deep .p-chip.BLUEBERRYPURPLE {
+	background: #6A5CFF;
+	color: white;
+}</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9">
       <c r="D24" t="s">
         <v>41</v>
       </c>
@@ -1374,24 +1537,46 @@
       <c r="F24" s="15" t="s">
         <v>14</v>
       </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>VIOLETPURPLE</v>
+      </c>
       <c r="H24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const VIOLETPURPLE = '#811E9F';</v>
       </c>
-    </row>
-    <row r="25" spans="4:8">
+      <c r="I24" t="str">
+        <f t="shared" si="2"/>
+        <v>:host ::ng-deep .p-chip.VIOLETPURPLE {
+	background: #811E9F;
+	color: white;
+}</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9">
       <c r="D25" t="s">
         <v>41</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>15</v>
       </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>PURPLE</v>
+      </c>
       <c r="H25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const PURPLE = '#B44AC0';</v>
       </c>
-    </row>
-    <row r="26" spans="4:8">
+      <c r="I25" t="str">
+        <f t="shared" si="2"/>
+        <v>:host ::ng-deep .p-chip.PURPLE {
+	background: #B44AC0;
+	color: white;
+}</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9">
       <c r="D26" t="s">
         <v>43</v>
       </c>
@@ -1401,12 +1586,23 @@
       <c r="F26" s="17" t="s">
         <v>16</v>
       </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>FUSIAPINK</v>
+      </c>
       <c r="H26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const FUSIAPINK = '#FF3881';</v>
       </c>
-    </row>
-    <row r="27" spans="4:8">
+      <c r="I26" t="str">
+        <f t="shared" si="2"/>
+        <v>:host ::ng-deep .p-chip.FUSIAPINK {
+	background: #FF3881;
+	color: white;
+}</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9">
       <c r="D27" t="s">
         <v>43</v>
       </c>
@@ -1416,42 +1612,65 @@
       <c r="F27" s="18" t="s">
         <v>17</v>
       </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>FLAMINGOPINK</v>
+      </c>
       <c r="H27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const FLAMINGOPINK = '#FF99AA';</v>
       </c>
-    </row>
-    <row r="28" spans="4:8">
+      <c r="I27" t="str">
+        <f t="shared" si="2"/>
+        <v>:host ::ng-deep .p-chip.FLAMINGOPINK {
+	background: #FF99AA;
+	color: white;
+}</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9">
       <c r="F28" s="19" t="s">
         <v>18</v>
       </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const = '#6D482F';</v>
       </c>
     </row>
-    <row r="29" spans="4:8">
+    <row r="29" spans="4:9">
       <c r="F29" s="20" t="s">
         <v>19</v>
       </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const = '#9C6926';</v>
       </c>
     </row>
-    <row r="30" spans="4:8">
+    <row r="30" spans="4:9">
       <c r="E30" t="s">
         <v>85</v>
       </c>
       <c r="F30" t="s">
         <v>20</v>
       </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>BLACK</v>
+      </c>
       <c r="H30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const BLACK = '#000000';</v>
       </c>
     </row>
-    <row r="31" spans="4:8">
+    <row r="31" spans="4:9">
       <c r="D31" t="s">
         <v>47</v>
       </c>
@@ -1461,12 +1680,16 @@
       <c r="F31" s="21" t="s">
         <v>21</v>
       </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>DARKGRAY</v>
+      </c>
       <c r="H31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const DARKGRAY = '#898D90';</v>
       </c>
     </row>
-    <row r="32" spans="4:8">
+    <row r="32" spans="4:9">
       <c r="D32" t="s">
         <v>47</v>
       </c>
@@ -1476,8 +1699,12 @@
       <c r="F32" s="22" t="s">
         <v>22</v>
       </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>LIGHTGRAY</v>
+      </c>
       <c r="H32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const LIGHTGRAY = '#D4D7D9';</v>
       </c>
     </row>
@@ -1488,14 +1715,22 @@
       <c r="F33" t="s">
         <v>23</v>
       </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>WHITE</v>
+      </c>
       <c r="H33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const WHITE = '#FFFFFF';</v>
       </c>
     </row>
     <row r="34" spans="5:8">
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const = '';</v>
       </c>
     </row>
@@ -1506,8 +1741,12 @@
       <c r="F35" t="s">
         <v>67</v>
       </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>GREY</v>
+      </c>
       <c r="H35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const GREY = '#6c616d';</v>
       </c>
     </row>
@@ -1518,8 +1757,12 @@
       <c r="F36" t="s">
         <v>68</v>
       </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>SHADOW</v>
+      </c>
       <c r="H36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const SHADOW = '#373737';</v>
       </c>
     </row>
@@ -1530,8 +1773,12 @@
       <c r="F37" t="s">
         <v>69</v>
       </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>GRAPHITE</v>
+      </c>
       <c r="H37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const GRAPHITE = '#584c5b';</v>
       </c>
     </row>
@@ -1542,8 +1789,12 @@
       <c r="F38" t="s">
         <v>70</v>
       </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>IRON</v>
+      </c>
       <c r="H38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const IRON = '#322d31';</v>
       </c>
     </row>
@@ -1554,8 +1805,12 @@
       <c r="F39" t="s">
         <v>71</v>
       </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>PEWTER</v>
+      </c>
       <c r="H39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const PEWTER = '#6a6880';</v>
       </c>
     </row>
@@ -1566,8 +1821,12 @@
       <c r="F40" t="s">
         <v>89</v>
       </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>CLOUD</v>
+      </c>
       <c r="H40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const CLOUD = '#adadc7';</v>
       </c>
     </row>
@@ -1578,8 +1837,12 @@
       <c r="F41" t="s">
         <v>72</v>
       </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>SILVER</v>
+      </c>
       <c r="H41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const SILVER = '#c6c6d0';</v>
       </c>
     </row>
@@ -1590,8 +1853,12 @@
       <c r="F42" t="s">
         <v>73</v>
       </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>SMOKE</v>
+      </c>
       <c r="H42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const SMOKE = '#59505e';</v>
       </c>
     </row>
@@ -1602,8 +1869,12 @@
       <c r="F43" t="s">
         <v>74</v>
       </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>SLATE</v>
+      </c>
       <c r="H43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const SLATE = '#3f3d52';</v>
       </c>
     </row>
@@ -1614,8 +1885,12 @@
       <c r="F44" t="s">
         <v>75</v>
       </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>ANCHOR</v>
+      </c>
       <c r="H44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const ANCHOR = '#42424c';</v>
       </c>
     </row>
@@ -1626,8 +1901,12 @@
       <c r="F45" t="s">
         <v>76</v>
       </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>ASH</v>
+      </c>
       <c r="H45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const ASH = '#554b4d';</v>
       </c>
     </row>
@@ -1638,8 +1917,12 @@
       <c r="F46" t="s">
         <v>77</v>
       </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>PORPOISE</v>
+      </c>
       <c r="H46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const PORPOISE = '#4d4c5c';</v>
       </c>
     </row>
@@ -1650,8 +1933,12 @@
       <c r="F47" t="s">
         <v>78</v>
       </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>DOVE</v>
+      </c>
       <c r="H47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const DOVE = '#7c6e7f';</v>
       </c>
     </row>
@@ -1662,8 +1949,12 @@
       <c r="F48" t="s">
         <v>79</v>
       </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>FOG</v>
+      </c>
       <c r="H48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const FOG = '#655865';</v>
       </c>
     </row>
@@ -1674,8 +1965,12 @@
       <c r="F49" t="s">
         <v>80</v>
       </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>FLINT</v>
+      </c>
       <c r="H49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const FLINT = '#7e7d9c';</v>
       </c>
     </row>
@@ -1686,8 +1981,12 @@
       <c r="F50" t="s">
         <v>81</v>
       </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>CHARCOAL</v>
+      </c>
       <c r="H50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const CHARCOAL = '#222023';</v>
       </c>
     </row>
@@ -1698,8 +1997,12 @@
       <c r="F51" t="s">
         <v>82</v>
       </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>PEBBLE</v>
+      </c>
       <c r="H51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const PEBBLE = '#333333';</v>
       </c>
     </row>
@@ -1710,8 +2013,12 @@
       <c r="F52" t="s">
         <v>83</v>
       </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>LEAD</v>
+      </c>
       <c r="H52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const LEAD = '#403f4d';</v>
       </c>
     </row>
@@ -1722,8 +2029,12 @@
       <c r="F53" t="s">
         <v>84</v>
       </c>
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>COIN</v>
+      </c>
       <c r="H53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const COIN = '#9897a8';</v>
       </c>
     </row>
@@ -1734,8 +2045,12 @@
       <c r="F54" t="s">
         <v>84</v>
       </c>
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>FOSSI</v>
+      </c>
       <c r="H54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>const FOSSI = '#9897a8';</v>
       </c>
     </row>
@@ -1753,7 +2068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5523E63F-96F9-5A49-B188-65050592BA23}">
   <dimension ref="C4:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="F114" sqref="F5:F114"/>
     </sheetView>
   </sheetViews>

--- a/CoUML-app/ClientApp/src/assets/consts.xlsx
+++ b/CoUML-app/ClientApp/src/assets/consts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smurph/Documents/CoUML/CoUML/CoUML-app/ClientApp/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B2843C-32BF-6345-880D-FBAE31FF72AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5205E78-8C98-7945-8FF5-17FAA65C46DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21520" yWindow="6820" windowWidth="21600" windowHeight="18920" xr2:uid="{2D55D91E-6242-7C43-A416-06FB51B3D50D}"/>
   </bookViews>
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338AB3BC-E281-BB41-9996-004E373358F6}">
   <dimension ref="D10:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/CoUML-app/ClientApp/src/assets/consts.xlsx
+++ b/CoUML-app/ClientApp/src/assets/consts.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smurph/Documents/CoUML/CoUML/CoUML-app/ClientApp/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5205E78-8C98-7945-8FF5-17FAA65C46DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781EE366-4142-AE44-8103-35B301B40D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21520" yWindow="6820" windowWidth="21600" windowHeight="18920" xr2:uid="{2D55D91E-6242-7C43-A416-06FB51B3D50D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16860" windowHeight="20500" activeTab="1" xr2:uid="{2D55D91E-6242-7C43-A416-06FB51B3D50D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="200">
   <si>
     <t>#BE0039</t>
   </si>
@@ -609,6 +610,33 @@
   </si>
   <si>
     <t>NP_9</t>
+  </si>
+  <si>
+    <t>FIRERED</t>
+  </si>
+  <si>
+    <t>CANNARYYELLOW</t>
+  </si>
+  <si>
+    <t>BUTTERYELLOW</t>
+  </si>
+  <si>
+    <t>LIMEGREEN</t>
+  </si>
+  <si>
+    <t>CERULEANBLUE</t>
+  </si>
+  <si>
+    <t>ARCTICBLUE</t>
+  </si>
+  <si>
+    <t>PURPLE</t>
+  </si>
+  <si>
+    <t>FLAMINGOPINK</t>
+  </si>
+  <si>
+    <t>LIGHTGRAY</t>
   </si>
 </sst>
 </file>
@@ -1151,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338AB3BC-E281-BB41-9996-004E373358F6}">
   <dimension ref="D10:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2065,6 +2093,106 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5300B2B0-0D72-A64A-B2D9-D9014C4AD162}">
+  <dimension ref="F5:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="6:7">
+      <c r="F5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" t="str">
+        <f>"_colorCatolog.set('"&amp;F5&amp;"', EditorColors."&amp;F5&amp;");"</f>
+        <v>_colorCatolog.set('FIRERED', EditorColors.FIRERED);</v>
+      </c>
+    </row>
+    <row r="6" spans="6:7">
+      <c r="F6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G13" si="0">"_colorCatolog.set('"&amp;F6&amp;"', EditorColors."&amp;F6&amp;");"</f>
+        <v>_colorCatolog.set('FLAMINGOPINK', EditorColors.FLAMINGOPINK);</v>
+      </c>
+    </row>
+    <row r="7" spans="6:7">
+      <c r="F7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>_colorCatolog.set('CANNARYYELLOW', EditorColors.CANNARYYELLOW);</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7">
+      <c r="F8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>_colorCatolog.set('BUTTERYELLOW', EditorColors.BUTTERYELLOW);</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7">
+      <c r="F9" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>_colorCatolog.set('LIMEGREEN', EditorColors.LIMEGREEN);</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7">
+      <c r="F10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>_colorCatolog.set('ARCTICBLUE', EditorColors.ARCTICBLUE);</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7">
+      <c r="F11" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>_colorCatolog.set('CERULEANBLUE', EditorColors.CERULEANBLUE);</v>
+      </c>
+    </row>
+    <row r="12" spans="6:7">
+      <c r="F12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>_colorCatolog.set('PURPLE', EditorColors.PURPLE);</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7">
+      <c r="F13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>_colorCatolog.set('LIGHTGRAY', EditorColors.LIGHTGRAY);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5523E63F-96F9-5A49-B188-65050592BA23}">
   <dimension ref="C4:F114"/>
   <sheetViews>
